--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Author notation</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">Duduct full marks for </t>
+  </si>
+  <si>
+    <t>For compilation errors</t>
+  </si>
+  <si>
+    <t>For incorrect scanning of data from input file</t>
+  </si>
+  <si>
+    <t>No output</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +429,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +542,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -540,15 +558,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1220,7 +1229,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A33:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="S. No" dataDxfId="4"/>
@@ -1499,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1523,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1602,11 +1611,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1618,14 +1627,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1720,11 +1729,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1736,14 +1745,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1890,11 +1899,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1906,14 +1915,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1948,8 +1957,12 @@
       <c r="D29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1964,34 +1977,38 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2030,11 +2047,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2046,14 +2063,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2069,28 +2086,35 @@
         <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2098,11 +2122,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>No output</t>
+  </si>
+  <si>
+    <t>(-1) for incomplete method</t>
+  </si>
+  <si>
+    <t>(-1) for wrong output format</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1571,9 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,7 +1587,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,7 +1603,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,7 +1619,9 @@
       <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1622,7 +1636,7 @@
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1667,7 +1681,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,7 +1697,9 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,8 +1713,12 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1709,7 +1731,9 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1725,8 +1749,12 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -1740,7 +1768,7 @@
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -2104,7 +2132,7 @@
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F38" s="23"/>
     </row>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Author notation</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>(-1) for wrong output format</t>
+  </si>
+  <si>
+    <t>(-2) For not iitializing constructor</t>
+  </si>
+  <si>
+    <t>(-5) For incorrect logic.</t>
+  </si>
+  <si>
+    <t>(-7)For not passing test cases.</t>
   </si>
 </sst>
 </file>
@@ -414,6 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,18 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1514,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,14 +1538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1625,11 +1634,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1641,14 +1650,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1757,11 +1766,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1773,14 +1782,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1815,8 +1824,12 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1829,7 +1842,9 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,8 +1860,12 @@
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1923,34 +1942,36 @@
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2013,11 +2034,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2029,14 +2050,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2071,15 +2092,19 @@
       <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2091,14 +2116,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2121,28 +2146,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2150,6 +2170,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Author notation</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>(-1) for wrong output format</t>
+  </si>
+  <si>
+    <t>For not writing the logic/Functionality</t>
   </si>
 </sst>
 </file>
@@ -414,6 +417,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,18 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1514,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1625,11 +1628,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1641,14 +1644,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1757,11 +1760,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1773,14 +1776,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1861,8 +1864,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1893,8 +1900,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1927,30 +1938,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2013,11 +2024,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2029,14 +2040,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2075,11 +2086,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2091,14 +2102,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2121,28 +2132,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2150,6 +2156,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Author notation</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>(-7)For not passing test cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5 for incorrect logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -8 for incorrect logic</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,16 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1524,7 +1530,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1634,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1650,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1766,11 +1772,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1782,14 +1788,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1896,8 +1902,12 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1928,8 +1938,12 @@
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1948,30 +1962,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2034,11 +2048,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2050,14 +2064,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2100,11 +2114,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2116,14 +2130,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2146,23 +2160,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2170,11 +2189,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Author notation</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -8 for incorrect logic</t>
+  </si>
+  <si>
+    <t>For not writing logic</t>
   </si>
 </sst>
 </file>
@@ -429,6 +432,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,18 +454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1529,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1544,14 +1547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1640,11 +1643,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1656,14 +1659,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1772,11 +1775,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1788,14 +1791,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1886,8 +1889,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1922,8 +1929,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1962,30 +1973,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2048,11 +2059,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2064,14 +2075,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2114,11 +2125,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2130,14 +2141,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2160,28 +2171,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2189,6 +2195,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,6 @@
     <t xml:space="preserve">Duduct full marks for </t>
   </si>
   <si>
-    <t>For compilation errors</t>
-  </si>
-  <si>
-    <t>For incorrect scanning of data from input file</t>
-  </si>
-  <si>
-    <t>No output</t>
-  </si>
-  <si>
     <t>(-1) for incomplete method</t>
   </si>
   <si>
@@ -180,6 +171,15 @@
   </si>
   <si>
     <t>For not writing logic</t>
+  </si>
+  <si>
+    <t>(-1) for adding a customer object cust which is null. You have to add add the Customer object 'r'. No need to create a new customer cust again.</t>
+  </si>
+  <si>
+    <t>(-5) for compilation errors in CustomerMapping, CustomerMappingDriver class again.</t>
+  </si>
+  <si>
+    <t>(-4) for no output displayed because of compilation errors</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,16 +453,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,14 +1547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1643,11 +1643,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1659,14 +1659,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,15 +1771,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1791,14 +1791,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,11 +1973,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1989,14 +1989,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2032,10 +2032,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,34 +2055,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2121,15 +2121,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2141,14 +2141,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2167,27 +2167,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2195,11 +2200,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,9 +158,6 @@
     <t>(-2) For not iitializing constructor</t>
   </si>
   <si>
-    <t>(-5) For incorrect logic.</t>
-  </si>
-  <si>
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
@@ -180,6 +177,10 @@
   </si>
   <si>
     <t>(-4) for no output displayed because of compilation errors</t>
+  </si>
+  <si>
+    <t>(-1) For incorrect creation of linked list.
+(-1) For not adding new customer into hash map.</t>
   </si>
 </sst>
 </file>
@@ -370,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,6 +433,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,17 +457,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,7 +1537,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,18 +1547,18 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="129.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1643,11 +1647,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1659,14 +1663,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1775,11 +1779,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1791,14 +1795,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1856,7 +1860,7 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>12</v>
       </c>
@@ -1870,10 +1874,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,30 +1977,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2035,7 +2039,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,15 +2059,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2075,14 +2079,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2121,15 +2125,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2141,14 +2145,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2167,32 +2171,27 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2200,6 +2199,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Author notation</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>(-1) for incomplete method</t>
-  </si>
-  <si>
-    <t>(-1) for wrong output format</t>
   </si>
   <si>
     <t>(-2) For not iitializing constructor</t>
@@ -181,6 +178,12 @@
   <si>
     <t>(-1) For incorrect creation of linked list.
 (-1) For not adding new customer into hash map.</t>
+  </si>
+  <si>
+    <t>(-0.5) for wrong toString format. He should return productName - ProductBrand but  .he returned "productBrand:" + "-"+   "productName: "; in quotes</t>
+  </si>
+  <si>
+    <t>(-0.25) for wrong file Name</t>
   </si>
 </sst>
 </file>
@@ -433,32 +436,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,14 +1554,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1594,9 +1597,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -1647,30 +1652,30 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1772,37 +1777,37 @@
         <v>2</v>
       </c>
       <c r="E14" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1841,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,8 +1881,8 @@
       <c r="E20" s="2">
         <v>8</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>51</v>
+      <c r="F20" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,11 +1982,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1993,14 +1998,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2039,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,15 +2064,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2079,14 +2084,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2125,15 +2130,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2145,14 +2150,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2171,27 +2176,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>48</v>
+        <v>48.25</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2199,11 +2209,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,12 +158,6 @@
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
-    <t xml:space="preserve"> -5 for incorrect logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -8 for incorrect logic</t>
-  </si>
-  <si>
     <t>For not writing logic</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>(-0.25) for wrong file Name</t>
+  </si>
+  <si>
+    <t>(-0.25) for writing HashSet spelling wrong,(-1) for wrong logic in if condition,(-1) for wrong logic for adding customer name into the set(graded even if it was commented out), (-0.5) for not returning the set</t>
+  </si>
+  <si>
+    <t>(-0.5) for not declaring the set, (-2) for not writing the if condition, (-2) for not adding the brand name into the set t(graded even if it was commented out), (-2) for not returning the set.</t>
   </si>
 </sst>
 </file>
@@ -439,6 +439,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,18 +461,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1539,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,14 +1554,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1600,7 +1600,7 @@
         <v>0.75</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,11 +1652,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1668,14 +1668,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1780,15 +1780,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1800,14 +1800,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1882,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <v>5</v>
+        <v>7.25</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,10 +1959,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,30 +1982,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>23</v>
+        <v>26.75</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2044,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,15 +2064,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2084,14 +2084,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2134,11 +2134,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2150,14 +2150,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2176,32 +2176,27 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>48.25</v>
+        <v>52</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2209,6 +2204,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ravirala_LabExam03Grading.xlsx
+++ b/Ravirala_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>(-7)For not passing test cases.</t>
-  </si>
-  <si>
-    <t>For not writing logic</t>
   </si>
   <si>
     <t>(-1) for adding a customer object cust which is null. You have to add add the Customer object 'r'. No need to create a new customer cust again.</t>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>(-0.5) for not declaring the set, (-2) for not writing the if condition, (-2) for not adding the brand name into the set t(graded even if it was commented out), (-2) for not returning the set.</t>
+  </si>
+  <si>
+    <t>(-5) For writing only for loop and not writing actual logic. *Awarded 1 mark after seeing relevant code in the comments.</t>
+  </si>
+  <si>
+    <t>(-7) For not writing any logic/Have written only declaration.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,16 +463,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1539,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,14 +1557,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1600,7 +1603,7 @@
         <v>0.75</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,11 +1655,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1668,14 +1671,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1780,15 +1783,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1800,14 +1803,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1882,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1922,7 +1925,7 @@
         <v>7.25</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,7 +1965,7 @@
         <v>3.5</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,30 +1985,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>26.75</v>
+        <v>30.75</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2044,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,15 +2067,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2084,14 +2087,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2134,11 +2137,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2150,14 +2153,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2176,27 +2179,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2204,11 +2212,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
